--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H2">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I2">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J2">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N2">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O2">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P2">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q2">
-        <v>2.554510921265333</v>
+        <v>2.066191397648</v>
       </c>
       <c r="R2">
-        <v>22.990598291388</v>
+        <v>18.595722578832</v>
       </c>
       <c r="S2">
-        <v>0.08738417387115356</v>
+        <v>0.06908446067982292</v>
       </c>
       <c r="T2">
-        <v>0.09432298782735046</v>
+        <v>0.07197811622063775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H3">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I3">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J3">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>24.005506</v>
       </c>
       <c r="O3">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P3">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q3">
-        <v>6.413452348717557</v>
+        <v>5.886158073035333</v>
       </c>
       <c r="R3">
-        <v>57.721071138458</v>
+        <v>52.975422657318</v>
       </c>
       <c r="S3">
-        <v>0.219390032937143</v>
+        <v>0.1968075447486245</v>
       </c>
       <c r="T3">
-        <v>0.2368108833606918</v>
+        <v>0.2050509794766653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H4">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I4">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J4">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N4">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O4">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P4">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q4">
-        <v>3.273561728952667</v>
+        <v>4.082843991151332</v>
       </c>
       <c r="R4">
-        <v>29.462055560574</v>
+        <v>36.74559592036199</v>
       </c>
       <c r="S4">
-        <v>0.1119813131035902</v>
+        <v>0.1365125590444443</v>
       </c>
       <c r="T4">
-        <v>0.1208732836261032</v>
+        <v>0.1422304921220509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H5">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I5">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J5">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N5">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O5">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P5">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q5">
-        <v>2.2075229446725</v>
+        <v>0.9730875760469998</v>
       </c>
       <c r="R5">
-        <v>13.245137668035</v>
+        <v>5.838525456281999</v>
       </c>
       <c r="S5">
-        <v>0.07551448193702442</v>
+        <v>0.03253581950925137</v>
       </c>
       <c r="T5">
-        <v>0.05434051533585477</v>
+        <v>0.02259907148366447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8014976666666667</v>
+        <v>0.7356009999999999</v>
       </c>
       <c r="H6">
-        <v>2.404493</v>
+        <v>2.206803</v>
       </c>
       <c r="I6">
-        <v>0.6408639441485913</v>
+        <v>0.5568025227146887</v>
       </c>
       <c r="J6">
-        <v>0.664582027958131</v>
+        <v>0.5688250870390384</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N6">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O6">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P6">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q6">
-        <v>4.285396428282667</v>
+        <v>3.644676389892</v>
       </c>
       <c r="R6">
-        <v>38.568567854544</v>
+        <v>32.802087509028</v>
       </c>
       <c r="S6">
-        <v>0.1465939422996801</v>
+        <v>0.1218621387325456</v>
       </c>
       <c r="T6">
-        <v>0.158234357808131</v>
+        <v>0.12696642773602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -853,13 +853,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H7">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I7">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J7">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N7">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O7">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P7">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q7">
-        <v>1.004761284953333</v>
+        <v>0.8854940134133332</v>
       </c>
       <c r="R7">
-        <v>9.042851564580001</v>
+        <v>7.969446120719999</v>
       </c>
       <c r="S7">
-        <v>0.03437066332050576</v>
+        <v>0.02960707145596863</v>
       </c>
       <c r="T7">
-        <v>0.03709989480221229</v>
+        <v>0.03084718631715167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -915,13 +915,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H8">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I8">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J8">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>24.005506</v>
       </c>
       <c r="O8">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P8">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q8">
         <v>2.522591925225556</v>
@@ -948,10 +948,10 @@
         <v>22.70332732703</v>
       </c>
       <c r="S8">
-        <v>0.08629229554857</v>
+        <v>0.08434451080759606</v>
       </c>
       <c r="T8">
-        <v>0.0931444079865448</v>
+        <v>0.08787734523423867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,13 +977,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H9">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I9">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J9">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N9">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O9">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P9">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q9">
-        <v>1.287584273676667</v>
+        <v>1.749757508418889</v>
       </c>
       <c r="R9">
-        <v>11.58825846309</v>
+        <v>15.74781757577</v>
       </c>
       <c r="S9">
-        <v>0.0440454128060618</v>
+        <v>0.05850428664410844</v>
       </c>
       <c r="T9">
-        <v>0.0475428759226187</v>
+        <v>0.0609547834930849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,13 +1039,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H10">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I10">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J10">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N10">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O10">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P10">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q10">
-        <v>0.8682811147874999</v>
+        <v>0.4170297214949999</v>
       </c>
       <c r="R10">
-        <v>5.209686688725</v>
+        <v>2.502178328969999</v>
       </c>
       <c r="S10">
-        <v>0.02970197828163798</v>
+        <v>0.01394366147769966</v>
       </c>
       <c r="T10">
-        <v>0.02137365926266424</v>
+        <v>0.009685134944547881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1101,13 +1101,13 @@
         <v>0.3152516666666667</v>
       </c>
       <c r="H11">
-        <v>0.945755</v>
+        <v>0.9457549999999999</v>
       </c>
       <c r="I11">
-        <v>0.2520698872894415</v>
+        <v>0.2386251830680085</v>
       </c>
       <c r="J11">
-        <v>0.2613988794525675</v>
+        <v>0.2437776141289484</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N11">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O11">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P11">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q11">
-        <v>1.685567435226667</v>
+        <v>1.56197491082</v>
       </c>
       <c r="R11">
-        <v>15.17010691704</v>
+        <v>14.05777419738</v>
       </c>
       <c r="S11">
-        <v>0.05765953733266596</v>
+        <v>0.05222565268263577</v>
       </c>
       <c r="T11">
-        <v>0.06223804147852746</v>
+        <v>0.05441316413992529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H12">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I12">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J12">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N12">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O12">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P12">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q12">
-        <v>0.4267702987300001</v>
+        <v>0.5238370440426666</v>
       </c>
       <c r="R12">
-        <v>2.560621792380001</v>
+        <v>4.714533396384001</v>
       </c>
       <c r="S12">
-        <v>0.01459886887811544</v>
+        <v>0.01751483415960166</v>
       </c>
       <c r="T12">
-        <v>0.01050540290826531</v>
+        <v>0.01824845640132796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H13">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I13">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J13">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>24.005506</v>
       </c>
       <c r="O13">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P13">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q13">
-        <v>1.071465755721667</v>
+        <v>1.492304947768445</v>
       </c>
       <c r="R13">
-        <v>6.428794534330001</v>
+        <v>13.430744529916</v>
       </c>
       <c r="S13">
-        <v>0.03665247586751028</v>
+        <v>0.04989619190350428</v>
       </c>
       <c r="T13">
-        <v>0.02637526439811223</v>
+        <v>0.05198613211214666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H14">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I14">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J14">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N14">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O14">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P14">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q14">
-        <v>0.5468987841650002</v>
+        <v>1.035114622027111</v>
       </c>
       <c r="R14">
-        <v>3.28139270499</v>
+        <v>9.316031598243999</v>
       </c>
       <c r="S14">
-        <v>0.01870819891493153</v>
+        <v>0.03460973435759331</v>
       </c>
       <c r="T14">
-        <v>0.01346249280887428</v>
+        <v>0.03605938958547626</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1339025</v>
+        <v>0.1864953333333333</v>
       </c>
       <c r="H15">
-        <v>0.267805</v>
+        <v>0.559486</v>
       </c>
       <c r="I15">
-        <v>0.1070661685619672</v>
+        <v>0.1411649414213912</v>
       </c>
       <c r="J15">
-        <v>0.07401909258930148</v>
+        <v>0.1442129961972698</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N15">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O15">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P15">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q15">
-        <v>0.36880062586875</v>
+        <v>0.246704792214</v>
       </c>
       <c r="R15">
-        <v>1.475202503475</v>
+        <v>1.480228753284</v>
       </c>
       <c r="S15">
-        <v>0.0126158544660838</v>
+        <v>0.008248736073837592</v>
       </c>
       <c r="T15">
-        <v>0.006052278675595474</v>
+        <v>0.005729493800810269</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1405,49 +1405,359 @@
         <v>1</v>
       </c>
       <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1864953333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.559486</v>
+      </c>
+      <c r="I16">
+        <v>0.1411649414213912</v>
+      </c>
+      <c r="J16">
+        <v>0.1442129961972698</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.954692000000001</v>
+      </c>
+      <c r="N16">
+        <v>14.864076</v>
+      </c>
+      <c r="O16">
+        <v>0.2188606081351916</v>
+      </c>
+      <c r="P16">
+        <v>0.2232082069321711</v>
+      </c>
+      <c r="Q16">
+        <v>0.9240269361040002</v>
+      </c>
+      <c r="R16">
+        <v>8.316242424936002</v>
+      </c>
+      <c r="S16">
+        <v>0.03089544492685438</v>
+      </c>
+      <c r="T16">
+        <v>0.0321895242975086</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.5</v>
       </c>
-      <c r="G16">
-        <v>0.1339025</v>
-      </c>
-      <c r="H16">
-        <v>0.267805</v>
-      </c>
-      <c r="I16">
-        <v>0.1070661685619672</v>
-      </c>
-      <c r="J16">
-        <v>0.07401909258930148</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>5.346736</v>
-      </c>
-      <c r="N16">
-        <v>16.040208</v>
-      </c>
-      <c r="O16">
-        <v>0.2287442500676723</v>
-      </c>
-      <c r="P16">
-        <v>0.2380960530851126</v>
-      </c>
-      <c r="Q16">
-        <v>0.71594131724</v>
-      </c>
-      <c r="R16">
-        <v>4.29564790344</v>
-      </c>
-      <c r="S16">
-        <v>0.02449077043532618</v>
-      </c>
-      <c r="T16">
-        <v>0.01762365379845419</v>
+      <c r="G17">
+        <v>0.0837685</v>
+      </c>
+      <c r="H17">
+        <v>0.167537</v>
+      </c>
+      <c r="I17">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J17">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.808848</v>
+      </c>
+      <c r="N17">
+        <v>8.426544</v>
+      </c>
+      <c r="O17">
+        <v>0.1240735410877844</v>
+      </c>
+      <c r="P17">
+        <v>0.1265382238946467</v>
+      </c>
+      <c r="Q17">
+        <v>0.235292983688</v>
+      </c>
+      <c r="R17">
+        <v>1.411757902128</v>
+      </c>
+      <c r="S17">
+        <v>0.007867174792391183</v>
+      </c>
+      <c r="T17">
+        <v>0.005464464955529328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0837685</v>
+      </c>
+      <c r="H18">
+        <v>0.167537</v>
+      </c>
+      <c r="I18">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J18">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.001835333333334</v>
+      </c>
+      <c r="N18">
+        <v>24.005506</v>
+      </c>
+      <c r="O18">
+        <v>0.3534602246216307</v>
+      </c>
+      <c r="P18">
+        <v>0.3604816034820782</v>
+      </c>
+      <c r="Q18">
+        <v>0.6703017431203334</v>
+      </c>
+      <c r="R18">
+        <v>4.021810458722</v>
+      </c>
+      <c r="S18">
+        <v>0.02241197716190592</v>
+      </c>
+      <c r="T18">
+        <v>0.0155671466590276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0837685</v>
+      </c>
+      <c r="H19">
+        <v>0.167537</v>
+      </c>
+      <c r="I19">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J19">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.550351333333333</v>
+      </c>
+      <c r="N19">
+        <v>16.651054</v>
+      </c>
+      <c r="O19">
+        <v>0.2451723070126871</v>
+      </c>
+      <c r="P19">
+        <v>0.2500425796309677</v>
+      </c>
+      <c r="Q19">
+        <v>0.4649446056663332</v>
+      </c>
+      <c r="R19">
+        <v>2.789667633998</v>
+      </c>
+      <c r="S19">
+        <v>0.01554572696654101</v>
+      </c>
+      <c r="T19">
+        <v>0.0107979144303556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.0837685</v>
+      </c>
+      <c r="H20">
+        <v>0.167537</v>
+      </c>
+      <c r="I20">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J20">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.322847</v>
+      </c>
+      <c r="N20">
+        <v>2.645694</v>
+      </c>
+      <c r="O20">
+        <v>0.0584333191427063</v>
+      </c>
+      <c r="P20">
+        <v>0.0397293860601361</v>
+      </c>
+      <c r="Q20">
+        <v>0.1108129089195</v>
+      </c>
+      <c r="R20">
+        <v>0.4432516356779999</v>
+      </c>
+      <c r="S20">
+        <v>0.003705102081917675</v>
+      </c>
+      <c r="T20">
+        <v>0.001715685831113468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0837685</v>
+      </c>
+      <c r="H21">
+        <v>0.167537</v>
+      </c>
+      <c r="I21">
+        <v>0.06340735279591164</v>
+      </c>
+      <c r="J21">
+        <v>0.04318430263474329</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.954692000000001</v>
+      </c>
+      <c r="N21">
+        <v>14.864076</v>
+      </c>
+      <c r="O21">
+        <v>0.2188606081351916</v>
+      </c>
+      <c r="P21">
+        <v>0.2232082069321711</v>
+      </c>
+      <c r="Q21">
+        <v>0.415047116802</v>
+      </c>
+      <c r="R21">
+        <v>2.490282700812</v>
+      </c>
+      <c r="S21">
+        <v>0.01387737179315586</v>
+      </c>
+      <c r="T21">
+        <v>0.009639090758717283</v>
       </c>
     </row>
   </sheetData>
